--- a/04-Study_one/04-Data_Analysis/information_collection/information collection.xlsx
+++ b/04-Study_one/04-Data_Analysis/information_collection/information collection.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/Study 1/Data Analysis/information_collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/04-Study_one/04-Data_Analysis/information_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,70 +174,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>77.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.0</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>92.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>101.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>104.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>106.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -249,70 +249,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>88.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>94.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>76.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>103.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>103.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,11 +327,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1695929872"/>
-        <c:axId val="-796701664"/>
+        <c:axId val="1790029120"/>
+        <c:axId val="1786997344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1695929872"/>
+        <c:axId val="1790029120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,7 +341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-796701664"/>
+        <c:crossAx val="1786997344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -349,7 +349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-796701664"/>
+        <c:axId val="1786997344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1695929872"/>
+        <c:crossAx val="1790029120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -436,70 +436,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>77.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.0</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>92.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>101.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>104.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>106.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,70 +511,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>88.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>94.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>76.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>103.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>103.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,70 +594,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>77.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.0</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>92.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>101.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>104.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>106.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,13 +669,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>140.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30.0</c:v>
@@ -684,55 +684,55 @@
                   <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>106.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>61.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>62.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>98.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,11 +747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-900005248"/>
-        <c:axId val="-804933536"/>
+        <c:axId val="1786961264"/>
+        <c:axId val="1786964144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-900005248"/>
+        <c:axId val="1786961264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-804933536"/>
+        <c:crossAx val="1786964144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804933536"/>
+        <c:axId val="1786964144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-900005248"/>
+        <c:crossAx val="1786961264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E23"/>
@@ -1236,45 +1236,45 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>140</v>
-      </c>
-      <c r="F2">
-        <v>102</v>
-      </c>
       <c r="G2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1282,25 +1282,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1328,71 +1328,71 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>46</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>54</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1420,94 +1420,94 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+      <c r="G10">
         <v>9</v>
-      </c>
-      <c r="E10">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1535,91 +1535,91 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F16">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>106</v>
+      </c>
+      <c r="F17">
+        <v>37</v>
+      </c>
+      <c r="G17">
         <v>10</v>
-      </c>
-      <c r="E17">
-        <v>61</v>
-      </c>
-      <c r="F17">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1627,123 +1627,141 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
         <v>7</v>
-      </c>
-      <c r="D19">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>98</v>
-      </c>
-      <c r="F19">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F20">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>223</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
         <v>110</v>
       </c>
-      <c r="B23">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+      <c r="E23">
+        <v>237</v>
+      </c>
+      <c r="F23">
+        <v>168</v>
+      </c>
+      <c r="G23">
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>STDEV(B2:B23)</f>
+        <v>39.870596962730602</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="0">STDEV(C2:C23)</f>
+        <v>12.937746379693852</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>22.484674915608768</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>50.961002830829472</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G23">
-    <sortState ref="A2:G26">
-      <sortCondition ref="A1:A26"/>
+    <sortState ref="A2:G23">
+      <sortCondition ref="B1:B23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
